--- a/MINESWEEPER/MINESWEEPER Class_Funcions.xlsx
+++ b/MINESWEEPER/MINESWEEPER Class_Funcions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="134">
   <si>
     <t>private</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -520,6 +520,43 @@
   </si>
   <si>
     <t>MainWindow.xaml.cs - UI 제어, 버튼 정보 생성 및 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisPatcherTimer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 이벤트를 위한 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 측정 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>Timer_Tick(object sender, EventArgs e)</t>
+  </si>
+  <si>
+    <t>1초에 1번 작동, 시간 증가 및 시간 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -929,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1598,53 +1635,61 @@
         <v>15</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="2"/>
+      <c r="A46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="C47" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="3"/>
@@ -1653,7 +1698,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="5" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1661,105 +1706,145 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F54" s="3"/>
+      <c r="F57" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
